--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1950.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1950.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.002*"exchange" + 0.001*"rate" + 0.001*"restriction" + 0.001*"import" + 0.001*"license" + 0.001*"payment" + 0.001*"foreign" + 0.001*"may" + 0.001*"country" + 0.001*"currency"</t>
-  </si>
-  <si>
-    <t>0.001*"exchange" + 0.001*"rate" + 0.001*"import" + 0.001*"country" + 0.001*"restriction" + 0.001*"payment" + 0.001*"foreign" + 0.001*"export" + 0.001*"fund" + 0.001*"license"</t>
-  </si>
-  <si>
-    <t>0.001*"exchange" + 0.001*"rate" + 0.001*"restriction" + 0.001*"license" + 0.001*"import" + 0.001*"require" + 0.001*"export" + 0.001*"international" + 0.001*"currency" + 0.001*"market"</t>
-  </si>
-  <si>
-    <t>0.004*"exchange" + 0.002*"import" + 0.002*"rate" + 0.002*"restriction" + 0.002*"require" + 0.002*"license" + 0.002*"foreign" + 0.002*"payment" + 0.001*"fund" + 0.001*"international"</t>
-  </si>
-  <si>
-    <t>0.041*"exchange" + 0.024*"rate" + 0.017*"restriction" + 0.016*"import" + 0.013*"payment" + 0.013*"license" + 0.012*"require" + 0.012*"foreign" + 0.012*"country" + 0.011*"fund"</t>
+    <t>0.085*"exchange" + 0.048*"rate" + 0.036*"market" + 0.027*"free" + 0.026*"foreign" + 0.025*"sell" + 0.017*"must" + 0.015*"export" + 0.014*"surrender" + 0.014*"tax"</t>
+  </si>
+  <si>
+    <t>0.036*"import" + 0.035*"exchange" + 0.032*"invisibles" + 0.027*"must" + 0.026*"dollar" + 0.020*"surrender" + 0.020*"payment" + 0.015*"receipt" + 0.014*"per" + 0.014*"u"</t>
+  </si>
+  <si>
+    <t>0.034*"import" + 0.031*"license" + 0.031*"require" + 0.027*"capital" + 0.026*"payment" + 0.017*"may" + 0.016*"exchange" + 0.014*"account" + 0.013*"foreign" + 0.013*"abroad"</t>
+  </si>
+  <si>
+    <t>0.049*"restriction" + 0.039*"export" + 0.023*"system" + 0.022*"require" + 0.018*"restrictive" + 0.016*"quantitative" + 0.016*"license" + 0.013*"nature" + 0.011*"cost" + 0.009*"exchange"</t>
+  </si>
+  <si>
+    <t>0.046*"exchange" + 0.045*"rate" + 0.035*"fund" + 0.029*"international" + 0.027*"monetary" + 0.023*"country" + 0.022*"restriction" + 0.022*"redistribution" + 0.016*"currency" + 0.012*"report"</t>
   </si>
 </sst>
 </file>
